--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl2-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl2-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.856666</v>
+        <v>4.232924</v>
       </c>
       <c r="H2">
-        <v>110.569998</v>
+        <v>12.698772</v>
       </c>
       <c r="I2">
-        <v>0.1389359711410444</v>
+        <v>0.05792409824508498</v>
       </c>
       <c r="J2">
-        <v>0.1389359711410443</v>
+        <v>0.05792409824508497</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1636346666666667</v>
+        <v>0.227228</v>
       </c>
       <c r="N2">
-        <v>0.490904</v>
+        <v>0.681684</v>
       </c>
       <c r="O2">
-        <v>0.1786204457433447</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="P2">
-        <v>0.1786204457433446</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="Q2">
-        <v>6.031028255354666</v>
+        <v>0.9618388546719999</v>
       </c>
       <c r="R2">
-        <v>54.279254298192</v>
+        <v>8.656549692047999</v>
       </c>
       <c r="S2">
-        <v>0.02481680509499781</v>
+        <v>0.0137643172847313</v>
       </c>
       <c r="T2">
-        <v>0.02481680509499781</v>
+        <v>0.01376431728473129</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.856666</v>
+        <v>4.232924</v>
       </c>
       <c r="H3">
-        <v>110.569998</v>
+        <v>12.698772</v>
       </c>
       <c r="I3">
-        <v>0.1389359711410444</v>
+        <v>0.05792409824508498</v>
       </c>
       <c r="J3">
-        <v>0.1389359711410443</v>
+        <v>0.05792409824508497</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.961192</v>
       </c>
       <c r="O3">
-        <v>0.7135997857590926</v>
+        <v>0.6836477770376096</v>
       </c>
       <c r="P3">
-        <v>0.7135997857590924</v>
+        <v>0.6836477770376095</v>
       </c>
       <c r="Q3">
-        <v>24.09433283529066</v>
+        <v>2.767192228469333</v>
       </c>
       <c r="R3">
-        <v>216.848995517616</v>
+        <v>24.904730056224</v>
       </c>
       <c r="S3">
-        <v>0.09914467924048072</v>
+        <v>0.03959968100216045</v>
       </c>
       <c r="T3">
-        <v>0.09914467924048069</v>
+        <v>0.03959968100216044</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.856666</v>
+        <v>4.232924</v>
       </c>
       <c r="H4">
-        <v>110.569998</v>
+        <v>12.698772</v>
       </c>
       <c r="I4">
-        <v>0.1389359711410444</v>
+        <v>0.05792409824508498</v>
       </c>
       <c r="J4">
-        <v>0.1389359711410443</v>
+        <v>0.05792409824508497</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,27 +685,27 @@
         <v>0.225841</v>
       </c>
       <c r="O4">
-        <v>0.08217455976549935</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="P4">
-        <v>0.08217455976549934</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="Q4">
-        <v>2.774582102035333</v>
+        <v>0.3186559296946666</v>
       </c>
       <c r="R4">
-        <v>24.971238918318</v>
+        <v>2.867903367252</v>
       </c>
       <c r="S4">
-        <v>0.01141700226410744</v>
+        <v>0.00456009995819324</v>
       </c>
       <c r="T4">
-        <v>0.01141700226410744</v>
+        <v>0.004560099958193239</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.856666</v>
+        <v>23.77965533333333</v>
       </c>
       <c r="H5">
-        <v>110.569998</v>
+        <v>71.338966</v>
       </c>
       <c r="I5">
-        <v>0.1389359711410444</v>
+        <v>0.3254051080913003</v>
       </c>
       <c r="J5">
-        <v>0.1389359711410443</v>
+        <v>0.3254051080913002</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.023457</v>
+        <v>0.227228</v>
       </c>
       <c r="N5">
-        <v>0.070371</v>
+        <v>0.681684</v>
       </c>
       <c r="O5">
-        <v>0.02560520873206351</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="P5">
-        <v>0.02560520873206351</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="Q5">
-        <v>0.864546814362</v>
+        <v>5.403403522082667</v>
       </c>
       <c r="R5">
-        <v>7.780921329258001</v>
+        <v>48.630631698744</v>
       </c>
       <c r="S5">
-        <v>0.003557484541458393</v>
+        <v>0.07732496990958325</v>
       </c>
       <c r="T5">
-        <v>0.003557484541458392</v>
+        <v>0.07732496990958324</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>71.338966</v>
       </c>
       <c r="I6">
-        <v>0.089640487480229</v>
+        <v>0.3254051080913003</v>
       </c>
       <c r="J6">
-        <v>0.08964048748022899</v>
+        <v>0.3254051080913002</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1636346666666667</v>
+        <v>0.6537306666666667</v>
       </c>
       <c r="N6">
-        <v>0.490904</v>
+        <v>1.961192</v>
       </c>
       <c r="O6">
-        <v>0.1786204457433447</v>
+        <v>0.6836477770376096</v>
       </c>
       <c r="P6">
-        <v>0.1786204457433446</v>
+        <v>0.6836477770376095</v>
       </c>
       <c r="Q6">
-        <v>3.891175973918223</v>
+        <v>15.54548993416356</v>
       </c>
       <c r="R6">
-        <v>35.020583765264</v>
+        <v>139.909409407472</v>
       </c>
       <c r="S6">
-        <v>0.01601162383036921</v>
+        <v>0.2224624787833005</v>
       </c>
       <c r="T6">
-        <v>0.0160116238303692</v>
+        <v>0.2224624787833004</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,45 +853,45 @@
         <v>71.338966</v>
       </c>
       <c r="I7">
-        <v>0.089640487480229</v>
+        <v>0.3254051080913003</v>
       </c>
       <c r="J7">
-        <v>0.08964048748022899</v>
+        <v>0.3254051080913002</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.6537306666666667</v>
+        <v>0.07528033333333332</v>
       </c>
       <c r="N7">
-        <v>1.961192</v>
+        <v>0.225841</v>
       </c>
       <c r="O7">
-        <v>0.7135997857590926</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="P7">
-        <v>0.7135997857590924</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="Q7">
-        <v>15.54548993416356</v>
+        <v>1.790140380045111</v>
       </c>
       <c r="R7">
-        <v>139.909409407472</v>
+        <v>16.111263420406</v>
       </c>
       <c r="S7">
-        <v>0.06396743266123203</v>
+        <v>0.02561765939841656</v>
       </c>
       <c r="T7">
-        <v>0.06396743266123202</v>
+        <v>0.02561765939841655</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.77965533333333</v>
+        <v>7.006365333333332</v>
       </c>
       <c r="H8">
-        <v>71.338966</v>
+        <v>21.019096</v>
       </c>
       <c r="I8">
-        <v>0.089640487480229</v>
+        <v>0.09587637148905993</v>
       </c>
       <c r="J8">
-        <v>0.08964048748022899</v>
+        <v>0.09587637148905992</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.07528033333333332</v>
+        <v>0.227228</v>
       </c>
       <c r="N8">
-        <v>0.225841</v>
+        <v>0.681684</v>
       </c>
       <c r="O8">
-        <v>0.08217455976549935</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="P8">
-        <v>0.08217455976549934</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="Q8">
-        <v>1.790140380045111</v>
+        <v>1.592042381962666</v>
       </c>
       <c r="R8">
-        <v>16.111263420406</v>
+        <v>14.328381437664</v>
       </c>
       <c r="S8">
-        <v>0.007366167595852575</v>
+        <v>0.02278279398844443</v>
       </c>
       <c r="T8">
-        <v>0.007366167595852572</v>
+        <v>0.02278279398844442</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.77965533333333</v>
+        <v>7.006365333333332</v>
       </c>
       <c r="H9">
-        <v>71.338966</v>
+        <v>21.019096</v>
       </c>
       <c r="I9">
-        <v>0.089640487480229</v>
+        <v>0.09587637148905993</v>
       </c>
       <c r="J9">
-        <v>0.08964048748022899</v>
+        <v>0.09587637148905992</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.023457</v>
+        <v>0.6537306666666667</v>
       </c>
       <c r="N9">
-        <v>0.070371</v>
+        <v>1.961192</v>
       </c>
       <c r="O9">
-        <v>0.02560520873206351</v>
+        <v>0.6836477770376096</v>
       </c>
       <c r="P9">
-        <v>0.02560520873206351</v>
+        <v>0.6836477770376095</v>
       </c>
       <c r="Q9">
-        <v>0.557799375154</v>
+        <v>4.580275880270221</v>
       </c>
       <c r="R9">
-        <v>5.020194376386</v>
+        <v>41.22248292243199</v>
       </c>
       <c r="S9">
-        <v>0.00229526339277519</v>
+        <v>0.06554566823892788</v>
       </c>
       <c r="T9">
-        <v>0.002295263392775189</v>
+        <v>0.06554566823892785</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.456122</v>
+        <v>7.006365333333332</v>
       </c>
       <c r="H10">
-        <v>16.368366</v>
+        <v>21.019096</v>
       </c>
       <c r="I10">
-        <v>0.02056755781258178</v>
+        <v>0.09587637148905993</v>
       </c>
       <c r="J10">
-        <v>0.02056755781258178</v>
+        <v>0.09587637148905992</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,33 +1051,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1636346666666667</v>
+        <v>0.07528033333333332</v>
       </c>
       <c r="N10">
-        <v>0.490904</v>
+        <v>0.225841</v>
       </c>
       <c r="O10">
-        <v>0.1786204457433447</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="P10">
-        <v>0.1786204457433446</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="Q10">
-        <v>0.8928107047626667</v>
+        <v>0.5274415177484443</v>
       </c>
       <c r="R10">
-        <v>8.035296342863999</v>
+        <v>4.746973659735999</v>
       </c>
       <c r="S10">
-        <v>0.003673786344335368</v>
+        <v>0.007547909261687641</v>
       </c>
       <c r="T10">
-        <v>0.003673786344335367</v>
+        <v>0.00754790926168764</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.456122</v>
+        <v>38.058136</v>
       </c>
       <c r="H11">
-        <v>16.368366</v>
+        <v>114.174408</v>
       </c>
       <c r="I11">
-        <v>0.02056755781258178</v>
+        <v>0.5207944221745548</v>
       </c>
       <c r="J11">
-        <v>0.02056755781258178</v>
+        <v>0.5207944221745548</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.6537306666666667</v>
+        <v>0.227228</v>
       </c>
       <c r="N11">
-        <v>1.961192</v>
+        <v>0.681684</v>
       </c>
       <c r="O11">
-        <v>0.7135997857590926</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="P11">
-        <v>0.7135997857590924</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="Q11">
-        <v>3.566834272474666</v>
+        <v>8.647874127007999</v>
       </c>
       <c r="R11">
-        <v>32.101508452272</v>
+        <v>77.830867143072</v>
       </c>
       <c r="S11">
-        <v>0.01467700484864611</v>
+        <v>0.1237547045894172</v>
       </c>
       <c r="T11">
-        <v>0.0146770048486461</v>
+        <v>0.1237547045894172</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,51 +1157,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.456122</v>
+        <v>38.058136</v>
       </c>
       <c r="H12">
-        <v>16.368366</v>
+        <v>114.174408</v>
       </c>
       <c r="I12">
-        <v>0.02056755781258178</v>
+        <v>0.5207944221745548</v>
       </c>
       <c r="J12">
-        <v>0.02056755781258178</v>
+        <v>0.5207944221745548</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.07528033333333332</v>
+        <v>0.6537306666666667</v>
       </c>
       <c r="N12">
-        <v>0.225841</v>
+        <v>1.961192</v>
       </c>
       <c r="O12">
-        <v>0.08217455976549935</v>
+        <v>0.6836477770376096</v>
       </c>
       <c r="P12">
-        <v>0.08217455976549934</v>
+        <v>0.6836477770376095</v>
       </c>
       <c r="Q12">
-        <v>0.4107386828673333</v>
+        <v>24.87977061937067</v>
       </c>
       <c r="R12">
-        <v>3.696648145805999</v>
+        <v>223.917935574336</v>
       </c>
       <c r="S12">
-        <v>0.001690130008700365</v>
+        <v>0.3560399490132208</v>
       </c>
       <c r="T12">
-        <v>0.001690130008700364</v>
+        <v>0.3560399490132207</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.456122</v>
+        <v>38.058136</v>
       </c>
       <c r="H13">
-        <v>16.368366</v>
+        <v>114.174408</v>
       </c>
       <c r="I13">
-        <v>0.02056755781258178</v>
+        <v>0.5207944221745548</v>
       </c>
       <c r="J13">
-        <v>0.02056755781258178</v>
+        <v>0.5207944221745548</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,276 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.023457</v>
+        <v>0.07528033333333332</v>
       </c>
       <c r="N13">
-        <v>0.070371</v>
+        <v>0.225841</v>
       </c>
       <c r="O13">
-        <v>0.02560520873206351</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="P13">
-        <v>0.02560520873206351</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="Q13">
-        <v>0.127984253754</v>
+        <v>2.865029164125333</v>
       </c>
       <c r="R13">
-        <v>1.151858283786</v>
+        <v>25.785262477128</v>
       </c>
       <c r="S13">
-        <v>0.0005266366108999401</v>
+        <v>0.04099976857191687</v>
       </c>
       <c r="T13">
-        <v>0.0005266366108999399</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>199.1856246666667</v>
-      </c>
-      <c r="H14">
-        <v>597.556874</v>
-      </c>
-      <c r="I14">
-        <v>0.7508559835661449</v>
-      </c>
-      <c r="J14">
-        <v>0.7508559835661449</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.1636346666666667</v>
-      </c>
-      <c r="N14">
-        <v>0.490904</v>
-      </c>
-      <c r="O14">
-        <v>0.1786204457433447</v>
-      </c>
-      <c r="P14">
-        <v>0.1786204457433446</v>
-      </c>
-      <c r="Q14">
-        <v>32.59367329712178</v>
-      </c>
-      <c r="R14">
-        <v>293.343059674096</v>
-      </c>
-      <c r="S14">
-        <v>0.1341182304736423</v>
-      </c>
-      <c r="T14">
-        <v>0.1341182304736422</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>199.1856246666667</v>
-      </c>
-      <c r="H15">
-        <v>597.556874</v>
-      </c>
-      <c r="I15">
-        <v>0.7508559835661449</v>
-      </c>
-      <c r="J15">
-        <v>0.7508559835661449</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.6537306666666667</v>
-      </c>
-      <c r="N15">
-        <v>1.961192</v>
-      </c>
-      <c r="O15">
-        <v>0.7135997857590926</v>
-      </c>
-      <c r="P15">
-        <v>0.7135997857590924</v>
-      </c>
-      <c r="Q15">
-        <v>130.2137512037564</v>
-      </c>
-      <c r="R15">
-        <v>1171.923760833808</v>
-      </c>
-      <c r="S15">
-        <v>0.5358106690087338</v>
-      </c>
-      <c r="T15">
-        <v>0.5358106690087336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>199.1856246666667</v>
-      </c>
-      <c r="H16">
-        <v>597.556874</v>
-      </c>
-      <c r="I16">
-        <v>0.7508559835661449</v>
-      </c>
-      <c r="J16">
-        <v>0.7508559835661449</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.07528033333333332</v>
-      </c>
-      <c r="N16">
-        <v>0.225841</v>
-      </c>
-      <c r="O16">
-        <v>0.08217455976549935</v>
-      </c>
-      <c r="P16">
-        <v>0.08217455976549934</v>
-      </c>
-      <c r="Q16">
-        <v>14.99476022011489</v>
-      </c>
-      <c r="R16">
-        <v>134.952841981034</v>
-      </c>
-      <c r="S16">
-        <v>0.06170125989683897</v>
-      </c>
-      <c r="T16">
-        <v>0.06170125989683897</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>199.1856246666667</v>
-      </c>
-      <c r="H17">
-        <v>597.556874</v>
-      </c>
-      <c r="I17">
-        <v>0.7508559835661449</v>
-      </c>
-      <c r="J17">
-        <v>0.7508559835661449</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.023457</v>
-      </c>
-      <c r="N17">
-        <v>0.070371</v>
-      </c>
-      <c r="O17">
-        <v>0.02560520873206351</v>
-      </c>
-      <c r="P17">
-        <v>0.02560520873206351</v>
-      </c>
-      <c r="Q17">
-        <v>4.672297197806</v>
-      </c>
-      <c r="R17">
-        <v>42.050674780254</v>
-      </c>
-      <c r="S17">
-        <v>0.01922582418692999</v>
-      </c>
-      <c r="T17">
-        <v>0.01922582418692999</v>
+        <v>0.04099976857191687</v>
       </c>
     </row>
   </sheetData>
